--- a/doc/P.I/Ricardo Fernandes/temposUtilizados_ricardoFernandes.xlsx
+++ b/doc/P.I/Ricardo Fernandes/temposUtilizados_ricardoFernandes.xlsx
@@ -168,10 +168,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43061</c:v>
                 </c:pt>
@@ -252,16 +252,31 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43134</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
                 </c:pt>
@@ -342,6 +357,21 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,8 +1418,8 @@
         <v>1.5</v>
       </c>
       <c r="C2" s="2">
-        <f>SUM(B2:B28)</f>
-        <v>34.25</v>
+        <f>SUM(B2:B32)</f>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,6 +1628,46 @@
       </c>
       <c r="B28">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43133</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43134</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43136</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43137</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
